--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -62,100 +62,19 @@
     <t>Float[]</t>
   </si>
   <si>
-    <t>StartStar</t>
-  </si>
-  <si>
-    <t>[10201]</t>
+    <t>Shu1_Lv1</t>
+  </si>
+  <si>
+    <t>[1100101]</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>LockNet</t>
-  </si>
-  <si>
-    <t>[10101]</t>
-  </si>
-  <si>
-    <t>BlackCloud</t>
-  </si>
-  <si>
-    <t>[20101]</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>[20105]</t>
-  </si>
-  <si>
-    <t>HalfBlackCloud</t>
-  </si>
-  <si>
-    <t>[10301]</t>
-  </si>
-  <si>
-    <t>Jelly</t>
-  </si>
-  <si>
-    <t>[40101]</t>
-  </si>
-  <si>
-    <t>BlueJelly</t>
-  </si>
-  <si>
-    <t>[40201]</t>
-  </si>
-  <si>
-    <t>GrassStack</t>
-  </si>
-  <si>
-    <t>[30201]</t>
-  </si>
-  <si>
-    <t>DarkGrassStack</t>
-  </si>
-  <si>
-    <t>[30301]</t>
-  </si>
-  <si>
-    <t>LockStack</t>
-  </si>
-  <si>
-    <t>[50101]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Up</t>
-  </si>
-  <si>
-    <t>[40101,20101]</t>
-  </si>
-  <si>
-    <t>[0.75,0.25]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Down</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Left</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Right</t>
-  </si>
-  <si>
-    <t>ArrowJelly_All</t>
-  </si>
-  <si>
-    <t>[40201,20101]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_None</t>
-  </si>
-  <si>
-    <t>SurfaceJelly_Normal</t>
-  </si>
-  <si>
-    <t>SurfaceJelly_Broken</t>
+    <t>Shu1_Lv2</t>
+  </si>
+  <si>
+    <t>Shu1_Lv3</t>
   </si>
 </sst>
 </file>
@@ -794,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,22 +727,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1144,21 +1057,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.44166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.0833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.1666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.9166666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.8916666666667" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.89166666666667" style="2"/>
   </cols>
@@ -1211,14 +1124,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>1200101</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>12</v>
+      <c r="C3" s="4">
+        <v>1200101</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -1227,22 +1142,24 @@
         <v>13</v>
       </c>
       <c r="G3" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>1200102</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
+        <v>1200102</v>
+      </c>
+      <c r="D4" s="5">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
@@ -1252,339 +1169,26 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4">
-        <v>16</v>
+      <c r="A5" s="4">
+        <v>1200103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1200103</v>
+      </c>
+      <c r="D5" s="5">
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>10005</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
         <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>10007</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6">
-        <v>20001</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6">
-        <v>20002</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
-        <v>20003</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6">
-        <v>80101</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6">
-        <v>80102</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6">
-        <v>80103</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="6">
-        <v>80104</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6">
-        <v>80201</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6">
-        <v>80202</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6">
-        <v>80203</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6">
-        <v>80204</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1133,7 +1133,7 @@
         <v>1200101</v>
       </c>
       <c r="D3" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -1156,7 +1156,7 @@
         <v>1200102</v>
       </c>
       <c r="D4" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -1179,7 +1179,7 @@
         <v>1200103</v>
       </c>
       <c r="D5" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>MaxHealthCount</t>
   </si>
   <si>
+    <t>EnergyCost</t>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
@@ -71,10 +74,19 @@
     <t>[1]</t>
   </si>
   <si>
+    <t>[5,15]</t>
+  </si>
+  <si>
     <t>Shu1_Lv2</t>
   </si>
   <si>
+    <t>[5,5,10,20]</t>
+  </si>
+  <si>
     <t>Shu1_Lv3</t>
+  </si>
+  <si>
+    <t>[5,10,10,15,15,25]</t>
   </si>
 </sst>
 </file>
@@ -713,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,17 +738,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1057,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
@@ -1076,7 +1091,7 @@
     <col min="9" max="16384" width="8.89166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1098,97 +1113,112 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>1200101</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
         <v>1200101</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
         <v>2</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
         <v>1200102</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1200102</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
-        <v>1200102</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>1200103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1200103</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>1200103</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1200103</v>
-      </c>
-      <c r="D5" s="5">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
         <v>6</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -80,13 +80,13 @@
     <t>Shu1_Lv2</t>
   </si>
   <si>
-    <t>[5,5,10,20]</t>
+    <t>[5,10,20]</t>
   </si>
   <si>
     <t>Shu1_Lv3</t>
   </si>
   <si>
-    <t>[5,10,10,15,15,25]</t>
+    <t>[10,15,15,25]</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1075,7 +1072,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1154,7 +1151,7 @@
         <v>1200101</v>
       </c>
       <c r="D3" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
@@ -1165,7 +1162,7 @@
       <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1180,18 +1177,18 @@
         <v>1200102</v>
       </c>
       <c r="D4" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1206,7 +1203,7 @@
         <v>1200103</v>
       </c>
       <c r="D5" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -1217,7 +1214,7 @@
       <c r="G5" s="5">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>17</v>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>19</v>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -68,10 +68,10 @@
     <t>Shu1_Lv1</t>
   </si>
   <si>
-    <t>[1100101]</t>
-  </si>
-  <si>
-    <t>[1]</t>
+    <t>[1100101,1100401]</t>
+  </si>
+  <si>
+    <t>[0.5,0.5]</t>
   </si>
   <si>
     <t>[5,15]</t>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1081,7 +1081,7 @@
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.0833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5833333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.5833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.9166666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.8916666666667" style="2" customWidth="1"/>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -68,25 +68,40 @@
     <t>Shu1_Lv1</t>
   </si>
   <si>
-    <t>[1100101,1100401]</t>
+    <t>[1100101]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[5,15]</t>
+  </si>
+  <si>
+    <t>Shu1_Lv2</t>
+  </si>
+  <si>
+    <t>[5,10,20]</t>
+  </si>
+  <si>
+    <t>Shu1_Lv3</t>
+  </si>
+  <si>
+    <t>[10,15,15,25]</t>
+  </si>
+  <si>
+    <t>Shu2_Lv1</t>
+  </si>
+  <si>
+    <t>[1100501,1100401]</t>
   </si>
   <si>
     <t>[0.5,0.5]</t>
   </si>
   <si>
-    <t>[5,15]</t>
-  </si>
-  <si>
-    <t>Shu1_Lv2</t>
-  </si>
-  <si>
-    <t>[5,10,20]</t>
-  </si>
-  <si>
-    <t>Shu1_Lv3</t>
-  </si>
-  <si>
-    <t>[10,15,15,25]</t>
+    <t>Shu2_Lv2</t>
+  </si>
+  <si>
+    <t>Shu2_Lv3</t>
   </si>
 </sst>
 </file>
@@ -1069,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
@@ -1182,7 +1197,7 @@
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5">
@@ -1215,6 +1230,84 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>1200201</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1200201</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>1200202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1200202</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>1200203</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1200203</v>
+      </c>
+      <c r="D8" s="6">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>Shu2_Lv3</t>
+  </si>
+  <si>
+    <t>Shu3_Lv1</t>
+  </si>
+  <si>
+    <t>[1100901,2000401,4000201]</t>
+  </si>
+  <si>
+    <t>[0.4,0.4,0.2]</t>
+  </si>
+  <si>
+    <t>Shu3_Lv2</t>
+  </si>
+  <si>
+    <t>Shu3_Lv3</t>
+  </si>
+  <si>
+    <t>[10,15,15,15,25]</t>
   </si>
 </sst>
 </file>
@@ -740,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +781,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1084,13 +1105,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
@@ -1311,6 +1332,84 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>1200301</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1200301</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>1200302</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1200302</v>
+      </c>
+      <c r="D10" s="8">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>1200303</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1200303</v>
+      </c>
+      <c r="D11" s="8">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Excel/TreeConfig.xlsx
+++ b/Assets/Resources/Excel/TreeConfig.xlsx
@@ -758,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,9 +781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1105,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1336,13 +1333,13 @@
       <c r="A9" s="5">
         <v>1200301</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>1200301</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1351,7 +1348,7 @@
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>2</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1362,13 +1359,13 @@
       <c r="A10" s="5">
         <v>1200302</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>1200302</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1377,7 +1374,7 @@
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1388,13 +1385,13 @@
       <c r="A11" s="5">
         <v>1200303</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="5">
         <v>1200303</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1403,7 +1400,7 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>5</v>
       </c>
       <c r="H11" s="5" t="s">
